--- a/database - circanual/percentage offspring/PO-Sire-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/PO-Sire-percentage of offspring by parent birthmonth.xlsx
@@ -4406,40 +4406,40 @@
         <v>10</v>
       </c>
       <c r="B107">
-        <v>3.056768558951965</v>
+        <v>3.070175438596491</v>
       </c>
       <c r="C107">
-        <v>2.620087336244541</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="D107">
-        <v>7.860262008733625</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E107">
-        <v>6.550218340611353</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="F107">
-        <v>12.66375545851528</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="G107">
-        <v>14.41048034934498</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H107">
-        <v>10.04366812227074</v>
+        <v>10.08771929824561</v>
       </c>
       <c r="I107">
-        <v>10.91703056768559</v>
+        <v>10.96491228070175</v>
       </c>
       <c r="J107">
-        <v>10.04366812227074</v>
+        <v>10.08771929824561</v>
       </c>
       <c r="K107">
-        <v>13.97379912663755</v>
+        <v>14.03508771929824</v>
       </c>
       <c r="L107">
-        <v>2.620087336244541</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="M107">
-        <v>5.240174672489083</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -5468,40 +5468,40 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>7.964601769911504</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="C134">
-        <v>15.92920353982301</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="D134">
-        <v>13.27433628318584</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="E134">
-        <v>5.309734513274337</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="F134">
-        <v>9.734513274336283</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="G134">
-        <v>5.309734513274337</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="H134">
-        <v>11.50442477876106</v>
+        <v>13.26530612244898</v>
       </c>
       <c r="I134">
-        <v>9.734513274336283</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="J134">
-        <v>9.734513274336283</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="K134">
-        <v>4.424778761061947</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="L134">
-        <v>4.424778761061947</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="M134">
-        <v>2.654867256637168</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -5560,40 +5560,37 @@
         <v>3</v>
       </c>
       <c r="B136">
-        <v>9.036144578313253</v>
-      </c>
-      <c r="C136">
-        <v>3.614457831325301</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D136">
-        <v>6.024096385542169</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="E136">
-        <v>6.024096385542169</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="F136">
-        <v>12.04819277108434</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G136">
-        <v>16.86746987951807</v>
+        <v>20</v>
       </c>
       <c r="H136">
-        <v>9.638554216867471</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="I136">
-        <v>12.04819277108434</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J136">
-        <v>4.819277108433735</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="K136">
-        <v>9.036144578313253</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L136">
-        <v>3.614457831325301</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="M136">
-        <v>7.228915662650602</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
